--- a/POMframework/data/TC002_CreateLead.xlsx
+++ b/POMframework/data/TC002_CreateLead.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7331FA8A-64E7-4427-8EDD-87CEE2AF283B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chowd\git\repository\POMframework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8565B-1533-4150-9460-B153B48BD629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -368,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,7 +384,7 @@
     <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
